--- a/doc/DetailedDesign.xlsx
+++ b/doc/DetailedDesign.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11364\Desktop\2024夏季学期\智能机电系统实践\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeWork\CodeTest\code_debug\trium\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E4A227-7DC5-4197-B160-F2E27884E33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87098505-0EEA-4C28-8E01-95A9A0EC6AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>分工列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>避障算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>负责人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘超屹，邵逸峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>谯楚</t>
   </si>
   <si>
@@ -95,6 +87,10 @@
   </si>
   <si>
     <t>注：All表示所有成员均参与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式系统软件总体规划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,123 +434,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E10"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="15.58203125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.58203125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="15.58203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -563,19 +561,22 @@
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>